--- a/src/main/resources/template/materialList.xlsx
+++ b/src/main/resources/template/materialList.xlsx
@@ -17,6 +17,12 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="28"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">                                              商品信息表
 </t>
     </r>
@@ -34,12 +40,12 @@
     <t>名称</t>
   </si>
   <si>
+    <t>品牌</t>
+  </si>
+  <si>
     <t>规格</t>
   </si>
   <si>
-    <t>品牌</t>
-  </si>
-  <si>
     <t>型号</t>
   </si>
   <si>
@@ -58,12 +64,12 @@
     <t>供应商</t>
   </si>
   <si>
+    <t>代发价</t>
+  </si>
+  <si>
     <t>集采价</t>
   </si>
   <si>
-    <t>代发价</t>
-  </si>
-  <si>
     <t>市场零售价</t>
   </si>
   <si>
@@ -76,10 +82,10 @@
     <t>{{$fe:list t.name</t>
   </si>
   <si>
+    <t>t.brand</t>
+  </si>
+  <si>
     <t>t.standard</t>
-  </si>
-  <si>
-    <t>t.brand</t>
   </si>
   <si>
     <t>t.model</t>
@@ -119,17 +125,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -172,7 +178,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -188,7 +194,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -203,36 +231,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -245,8 +252,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -260,47 +275,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -314,9 +291,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -337,13 +343,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,7 +397,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,25 +481,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,121 +517,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,56 +574,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -648,6 +604,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -656,145 +642,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -810,6 +816,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1142,7 +1151,7 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.2181818181818" defaultRowHeight="12.5" outlineLevelRow="3"/>
@@ -1268,13 +1277,13 @@
       <c r="I3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -1283,15 +1292,15 @@
       <c r="N3" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
     </row>
     <row r="4" ht="18.5" spans="1:23">
       <c r="A4" s="3"/>
@@ -1307,16 +1316,16 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/main/resources/template/materialList.xlsx
+++ b/src/main/resources/template/materialList.xlsx
@@ -1151,7 +1151,7 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.2181818181818" defaultRowHeight="12.5" outlineLevelRow="3"/>

--- a/src/main/resources/template/materialList.xlsx
+++ b/src/main/resources/template/materialList.xlsx
@@ -13,8 +13,12 @@
 </workbook>
 </file>
 
+<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
+<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData"/>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <r>
       <rPr>
@@ -118,7 +122,10 @@
     <t>t.links</t>
   </si>
   <si>
-    <t>t.img}}</t>
+    <t>t.img</t>
+  </si>
+  <si>
+    <t>}}</t>
   </si>
 </sst>
 </file>
@@ -126,11 +133,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -178,7 +185,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -192,137 +328,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -343,13 +350,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,7 +428,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,19 +464,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,43 +500,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,85 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,41 +572,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,16 +603,51 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,18 +664,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -666,141 +673,141 @@
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -809,16 +816,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1151,21 +1161,24 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.2181818181818" defaultRowHeight="12.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="19.8545454545455" customWidth="1"/>
-    <col min="2" max="5" width="14.6272727272727" customWidth="1"/>
-    <col min="6" max="7" width="12.2818181818182" customWidth="1"/>
-    <col min="8" max="8" width="15.1090909090909" customWidth="1"/>
-    <col min="9" max="9" width="14.9454545454545" customWidth="1"/>
-    <col min="10" max="10" width="10.5818181818182" customWidth="1"/>
-    <col min="11" max="11" width="10.6636363636364" customWidth="1"/>
-    <col min="12" max="12" width="16.1454545454545" customWidth="1"/>
-    <col min="13" max="13" width="22.3454545454545" customWidth="1"/>
-    <col min="14" max="14" width="24.4909090909091" customWidth="1"/>
+    <col min="1" max="1" width="26.8181818181818" customWidth="1"/>
+    <col min="2" max="2" width="11.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="16.0909090909091" customWidth="1"/>
+    <col min="4" max="5" width="11.4545454545455" customWidth="1"/>
+    <col min="6" max="6" width="16.0909090909091" customWidth="1"/>
+    <col min="7" max="7" width="14.5454545454545" customWidth="1"/>
+    <col min="8" max="8" width="9.90909090909091" customWidth="1"/>
+    <col min="9" max="9" width="16.0909090909091" customWidth="1"/>
+    <col min="10" max="10" width="32.9090909090909" customWidth="1"/>
+    <col min="11" max="11" width="26.8181818181818" customWidth="1"/>
+    <col min="12" max="12" width="28.3636363636364" customWidth="1"/>
+    <col min="13" max="13" width="11.4545454545455" customWidth="1"/>
+    <col min="14" max="14" width="60.6363636363636" customWidth="1"/>
     <col min="15" max="23" width="9.91818181818182" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1196,7 +1209,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" ht="18.5" spans="1:23">
+    <row r="2" ht="40" customHeight="1" spans="1:23">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1236,20 +1249,20 @@
       <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
     </row>
-    <row r="3" ht="18.5" spans="1:23">
+    <row r="3" ht="150" customHeight="1" spans="1:23">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1277,55 +1290,57 @@
       <c r="I3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
+      <c r="O3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
     </row>
     <row r="4" ht="18.5" spans="1:23">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/main/resources/template/materialList.xlsx
+++ b/src/main/resources/template/materialList.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <r>
       <rPr>
@@ -122,10 +122,7 @@
     <t>t.links</t>
   </si>
   <si>
-    <t>t.img</t>
-  </si>
-  <si>
-    <t>}}</t>
+    <t>t.img}}</t>
   </si>
 </sst>
 </file>
@@ -133,11 +130,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -185,7 +182,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -193,104 +227,60 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -304,17 +294,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -329,7 +318,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -350,49 +347,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,48 +509,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -458,79 +527,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,17 +569,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,21 +608,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -631,8 +622,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,159 +666,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1161,7 +1158,7 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.2181818181818" defaultRowHeight="12.5" outlineLevelRow="3"/>
@@ -1177,8 +1174,7 @@
     <col min="10" max="10" width="32.9090909090909" customWidth="1"/>
     <col min="11" max="11" width="26.8181818181818" customWidth="1"/>
     <col min="12" max="12" width="28.3636363636364" customWidth="1"/>
-    <col min="13" max="13" width="11.4545454545455" customWidth="1"/>
-    <col min="14" max="14" width="60.6363636363636" customWidth="1"/>
+    <col min="13" max="14" width="60.6363636363636" customWidth="1"/>
     <col min="15" max="23" width="9.91818181818182" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1305,9 +1301,7 @@
       <c r="N3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="O3" s="3"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>

--- a/src/main/resources/template/materialList.xlsx
+++ b/src/main/resources/template/materialList.xlsx
@@ -11,10 +11,6 @@
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
-</file>
-
-<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
-<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData"/>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -130,11 +126,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -182,6 +178,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -189,14 +199,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -211,6 +237,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -218,30 +275,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -249,15 +291,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -271,31 +305,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -303,30 +315,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -347,187 +343,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,30 +565,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -610,17 +582,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -631,8 +592,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,16 +628,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -670,137 +666,137 @@
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1158,7 +1154,7 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.2181818181818" defaultRowHeight="12.5" outlineLevelRow="3"/>

--- a/src/main/resources/template/materialList.xlsx
+++ b/src/main/resources/template/materialList.xlsx
@@ -126,10 +126,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="28">
@@ -185,21 +185,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -213,62 +243,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -282,16 +266,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -307,22 +284,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -343,109 +343,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,73 +523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,32 +583,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,18 +608,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,145 +636,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -822,6 +822,9 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1154,7 +1157,7 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.2181818181818" defaultRowHeight="12.5" outlineLevelRow="3"/>
@@ -1294,18 +1297,18 @@
       <c r="M3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="8" t="s">
         <v>28</v>
       </c>
       <c r="O3" s="3"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
     </row>
     <row r="4" ht="18.5" spans="1:23">
       <c r="A4" s="4"/>
@@ -1321,16 +1324,16 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/main/resources/template/materialList.xlsx
+++ b/src/main/resources/template/materialList.xlsx
@@ -13,8 +13,12 @@
 </workbook>
 </file>
 
+<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
+<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData"/>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <r>
       <rPr>
@@ -115,10 +119,10 @@
     <t>t.commodityDecimal</t>
   </si>
   <si>
-    <t>t.links</t>
-  </si>
-  <si>
-    <t>t.img}}</t>
+    <t>t.img</t>
+  </si>
+  <si>
+    <t>}}</t>
   </si>
 </sst>
 </file>
@@ -126,13 +130,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -171,6 +175,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="15"/>
       <color rgb="FF3600C0"/>
       <name val="楷书"/>
@@ -184,6 +194,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -192,37 +210,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -230,6 +255,61 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -243,86 +323,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -334,7 +344,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,25 +353,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,156 +539,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -566,6 +582,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -583,8 +614,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,18 +646,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,6 +670,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -651,152 +693,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -823,10 +854,11 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1157,7 +1189,7 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.2181818181818" defaultRowHeight="12.5" outlineLevelRow="3"/>
@@ -1294,13 +1326,15 @@
       <c r="L3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="N3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="3"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>

--- a/src/main/resources/template/materialList.xlsx
+++ b/src/main/resources/template/materialList.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <r>
       <rPr>
@@ -119,6 +119,9 @@
     <t>t.commodityDecimal</t>
   </si>
   <si>
+    <t>t.links</t>
+  </si>
+  <si>
     <t>t.img</t>
   </si>
   <si>
@@ -130,13 +133,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -175,12 +178,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="15"/>
       <color rgb="FF3600C0"/>
       <name val="楷书"/>
@@ -188,12 +185,63 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -202,37 +250,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -246,75 +281,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -323,16 +289,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -344,7 +341,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,7 +350,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,19 +470,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,25 +500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,73 +512,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,48 +530,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -582,21 +573,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -623,8 +599,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,11 +622,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,24 +661,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,141 +673,141 @@
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -854,11 +830,13 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1188,8 +1166,8 @@
   <sheetPr/>
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.2181818181818" defaultRowHeight="12.5" outlineLevelRow="3"/>
@@ -1329,20 +1307,20 @@
       <c r="M3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="8" t="s">
-        <v>27</v>
+      <c r="N3" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
     </row>
     <row r="4" ht="18.5" spans="1:23">
       <c r="A4" s="4"/>
@@ -1358,16 +1336,16 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/main/resources/template/materialList.xlsx
+++ b/src/main/resources/template/materialList.xlsx
@@ -11,10 +11,6 @@
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
-</file>
-
-<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
-<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData"/>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -133,11 +129,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -178,78 +174,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="15"/>
       <color rgb="FF3600C0"/>
       <name val="楷书"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -260,6 +198,72 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -273,6 +277,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -281,9 +293,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -299,22 +318,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -323,13 +326,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -350,18 +346,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -374,97 +418,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,61 +520,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,6 +569,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -590,6 +601,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -599,32 +619,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,21 +655,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -673,141 +669,141 @@
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -830,15 +826,16 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1164,13 +1161,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.2181818181818" defaultRowHeight="12.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="22.2181818181818" defaultRowHeight="12.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="26.8181818181818" customWidth="1"/>
     <col min="2" max="2" width="11.4545454545455" customWidth="1"/>
@@ -1347,6 +1344,9 @@
       <c r="V4" s="10"/>
       <c r="W4" s="10"/>
     </row>
+    <row r="8" ht="14" spans="13:13">
+      <c r="M8" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:W1"/>

--- a/src/main/resources/template/materialList.xlsx
+++ b/src/main/resources/template/materialList.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25018"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lanvce\Lanvce\project\jsh-boot\src\main\resources\template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904BE5F8-BF9D-484C-9BD2-4918199F08DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="254" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17810" tabRatio="254"/>
   </bookViews>
   <sheets>
     <sheet name="商品信息" sheetId="1" r:id="rId1"/>
@@ -27,7 +21,6 @@
         <b/>
         <sz val="28"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                                              商品信息表
@@ -38,7 +31,6 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>注：同一型号产品若存在多家供应商，只会导出集采价更低的那家</t>
@@ -135,15 +127,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -166,7 +163,6 @@
       <b/>
       <sz val="15"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -175,7 +171,6 @@
       <sz val="15"/>
       <color rgb="FF3600C0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -184,7 +179,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -199,40 +193,360 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="28"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -268,15 +582,257 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -292,41 +848,81 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF3600C0"/>
-      <color rgb="FF000000"/>
+      <color rgb="003600C0"/>
+      <color rgb="00000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -584,207 +1180,205 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="22.1818181818182" defaultRowHeight="12.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" customWidth="1"/>
-    <col min="4" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.08984375" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.08984375" customWidth="1"/>
-    <col min="10" max="10" width="32.90625" customWidth="1"/>
-    <col min="11" max="11" width="26.81640625" customWidth="1"/>
-    <col min="12" max="12" width="28.36328125" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="9.90625" customWidth="1"/>
+    <col min="1" max="1" width="26.8181818181818" customWidth="1"/>
+    <col min="2" max="2" width="11.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="16.0909090909091" customWidth="1"/>
+    <col min="4" max="5" width="11.5454545454545" customWidth="1"/>
+    <col min="6" max="6" width="16.0909090909091" customWidth="1"/>
+    <col min="7" max="7" width="14.6363636363636" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="16.0909090909091" customWidth="1"/>
+    <col min="10" max="10" width="32.9090909090909" customWidth="1"/>
+    <col min="11" max="11" width="26.8181818181818" customWidth="1"/>
+    <col min="12" max="12" width="28.3636363636364" customWidth="1"/>
+    <col min="13" max="14" width="60.6363636363636" customWidth="1"/>
+    <col min="15" max="15" width="4.45454545454545" customWidth="1"/>
+    <col min="16" max="23" width="9.90909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="81" customHeight="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" ht="81" customHeight="1" spans="1:23">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="40" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="40" customHeight="1" spans="1:23">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
     </row>
-    <row r="3" spans="1:23" ht="18.5">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="150" customHeight="1" spans="1:23">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
     </row>
-    <row r="4" spans="1:23" ht="18.5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
+    <row r="4" ht="18.5" spans="1:23">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
     </row>
-    <row r="8" spans="1:23" ht="14">
-      <c r="M8" s="9"/>
+    <row r="8" ht="14" spans="13:13">
+      <c r="M8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:W1"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
--- a/src/main/resources/template/materialList.xlsx
+++ b/src/main/resources/template/materialList.xlsx
@@ -129,14 +129,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -199,7 +199,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,61 +220,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -279,16 +234,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,6 +280,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -312,7 +305,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,16 +327,17 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="28"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -361,13 +355,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,13 +457,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,151 +499,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,6 +577,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -598,16 +610,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -628,34 +640,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -683,148 +677,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1189,7 +1183,7 @@
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.1818181818182" defaultRowHeight="12.5" outlineLevelRow="7"/>
@@ -1290,7 +1284,7 @@
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
     </row>
-    <row r="3" ht="150" customHeight="1" spans="1:23">
+    <row r="3" ht="250" customHeight="1" spans="1:23">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>

--- a/src/main/resources/template/materialList.xlsx
+++ b/src/main/resources/template/materialList.xlsx
@@ -129,12 +129,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -197,8 +197,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -206,21 +220,67 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,16 +294,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,76 +312,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,25 +355,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,157 +469,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,15 +581,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -610,21 +601,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -636,6 +612,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,15 +651,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -674,151 +659,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -842,10 +842,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1183,7 +1183,7 @@
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.1818181818182" defaultRowHeight="12.5" outlineLevelRow="7"/>
@@ -1199,7 +1199,7 @@
     <col min="10" max="10" width="32.9090909090909" customWidth="1"/>
     <col min="11" max="11" width="26.8181818181818" customWidth="1"/>
     <col min="12" max="12" width="28.3636363636364" customWidth="1"/>
-    <col min="13" max="14" width="60.6363636363636" customWidth="1"/>
+    <col min="13" max="14" width="9.09090909090909" customWidth="1"/>
     <col min="15" max="15" width="4.45454545454545" customWidth="1"/>
     <col min="16" max="23" width="9.90909090909091" customWidth="1"/>
   </cols>
@@ -1284,7 +1284,7 @@
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
     </row>
-    <row r="3" ht="250" customHeight="1" spans="1:23">
+    <row r="3" ht="50" customHeight="1" spans="1:23">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>

--- a/src/main/resources/template/materialList.xlsx
+++ b/src/main/resources/template/materialList.xlsx
@@ -17,6 +17,12 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="28"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">                                     商品信息表
 </t>
     </r>
@@ -160,95 +166,80 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="15"/>
       <color rgb="FF3600C0"/>
       <name val="楷书"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,14 +268,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -301,6 +284,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -332,79 +338,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,103 +500,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,21 +543,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,6 +604,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -644,10 +650,10 @@
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,137 +662,137 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -806,7 +812,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1137,7 +1146,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.1818181818182" defaultRowHeight="12.5" outlineLevelRow="3"/>
@@ -1219,7 +1228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" ht="50" customHeight="1" spans="1:14">
+    <row r="3" ht="56.65" customHeight="1" spans="1:14">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1250,7 +1259,7 @@
       <c r="J3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L3" s="5" t="s">
@@ -1277,12 +1286,12 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/main/resources/template/materialList.xlsx
+++ b/src/main/resources/template/materialList.xlsx
@@ -14,27 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="28"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                                     商品信息表
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注：同一型号产品若存在多家供应商，只会导出集采价更低的那家</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>商品信息表</t>
+  </si>
+  <si>
+    <t>注：同一型号产品若存在多家供应商，只会导出集采价更低的那家</t>
   </si>
   <si>
     <t>品牌</t>
@@ -126,21 +111,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="28"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -151,6 +130,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -181,82 +166,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,6 +216,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -276,6 +240,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -285,6 +272,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -293,40 +302,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -338,13 +317,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,49 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,120 +485,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -547,6 +526,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -564,9 +552,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,6 +580,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -598,8 +597,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,172 +632,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -811,6 +799,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1143,13 +1134,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.1818181818182" defaultRowHeight="12.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="22.1818181818182" defaultRowHeight="12.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="11.5454545454545" customWidth="1"/>
     <col min="2" max="2" width="18.2363636363636" customWidth="1"/>
@@ -1163,139 +1154,156 @@
     <col min="12" max="12" width="11.5454545454545" customWidth="1"/>
     <col min="13" max="13" width="14.6363636363636" customWidth="1"/>
     <col min="14" max="14" width="26.2545454545455" customWidth="1"/>
-    <col min="15" max="19" width="9.90909090909091" customWidth="1"/>
+    <col min="15" max="15" width="5.13636363636364" customWidth="1"/>
+    <col min="16" max="16" width="8.55454545454545" customWidth="1"/>
+    <col min="17" max="17" width="7.8" customWidth="1"/>
+    <col min="18" max="18" width="7.05454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="81" customHeight="1" spans="1:14">
+    <row r="1" ht="70" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="7"/>
     </row>
-    <row r="2" ht="40" customHeight="1" spans="1:14">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="37" customHeight="1" spans="1:14">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" ht="40" customHeight="1" spans="1:14">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="N3" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" ht="56.65" customHeight="1" spans="1:14">
-      <c r="A3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="4" ht="56.65" customHeight="1" spans="1:14">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="J4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="K4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="N4" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" ht="18.5" spans="1:19">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
+    <row r="5" ht="18.5" spans="1:14">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/src/main/resources/template/materialList.xlsx
+++ b/src/main/resources/template/materialList.xlsx
@@ -111,8 +111,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -165,6 +165,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -173,6 +181,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -180,21 +209,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,6 +236,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,17 +254,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,29 +270,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -278,8 +285,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,7 +295,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,14 +303,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,187 +317,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,6 +535,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -546,17 +561,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,7 +584,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,7 +593,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,165 +622,161 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.1818181818182" defaultRowHeight="12.5" outlineLevelRow="4"/>
